--- a/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DDF80B-F250-4B8D-B4A4-41A7AD1E22B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{066D5531-B91D-456F-90DC-D9B372FB777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{46339CFA-ACE5-4EA0-A9F8-BDDD3C1F721C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{202A0AF2-4C8A-4165-A645-6FB676238C56}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,178 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -83,9 +251,6 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>4,97%</t>
   </si>
   <si>
@@ -98,9 +263,6 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>19,66%</t>
   </si>
   <si>
@@ -128,33 +290,6 @@
     <t>26,06%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>77,63%</t>
   </si>
   <si>
@@ -182,81 +317,114 @@
     <t>83,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>6,56%</t>
   </si>
   <si>
@@ -305,30 +473,6 @@
     <t>24,15%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
     <t>76,5%</t>
   </si>
   <si>
@@ -338,9 +482,6 @@
     <t>83,78%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
     <t>69,55%</t>
   </si>
   <si>
@@ -356,145 +497,28 @@
     <t>82,63%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -546,30 +570,6 @@
   </si>
   <si>
     <t>23,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
   </si>
   <si>
     <t>78,43%</t>
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F792842-C7B7-4E16-809E-B86750CBA259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74991F0-1299-47C1-9380-273ED96B4B9F}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1106,10 +1106,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2228</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1121,187 +1121,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3528</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>28711</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>20247</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>48959</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1725</v>
+        <v>1434</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>726</v>
+        <v>1811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>2451</v>
+        <v>3245</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>113365</v>
+        <v>5121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>79966</v>
+        <v>7957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>193330</v>
+        <v>13077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,54 +1310,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>146029</v>
+        <v>6555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>248268</v>
+        <v>16322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1369,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1399,121 +1399,121 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10440</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>6283</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>16723</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>6283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>16723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>65</v>
@@ -1522,13 +1522,13 @@
         <v>58838</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -1537,13 +1537,13 @@
         <v>45315</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -1552,13 +1552,13 @@
         <v>104153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,13 +1573,13 @@
         <v>69278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -1588,13 +1588,13 @@
         <v>51598</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -1603,219 +1603,219 @@
         <v>120876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1725</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
-        <v>1175</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
+        <v>726</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="7">
         <v>3</v>
       </c>
-      <c r="I14" s="7">
-        <v>2757</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
       <c r="N14" s="7">
-        <v>3932</v>
+        <v>2451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>18419</v>
+        <v>2228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>17299</v>
+        <v>1300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>35718</v>
+        <v>3528</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>2262</v>
+        <v>28711</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>1644</v>
+        <v>20247</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>3906</v>
+        <v>48959</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
+        <v>143</v>
+      </c>
+      <c r="D17" s="7">
+        <v>113365</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>106</v>
+      </c>
+      <c r="I17" s="7">
+        <v>79966</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="7">
+        <v>249</v>
+      </c>
+      <c r="N17" s="7">
+        <v>193330</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="7">
-        <v>71130</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>104</v>
-      </c>
-      <c r="I17" s="7">
-        <v>77491</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="7">
-        <v>195</v>
-      </c>
-      <c r="N17" s="7">
-        <v>148621</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,255 +1824,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D18" s="7">
-        <v>92986</v>
+        <v>146029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I18" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M18" s="7">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="N18" s="7">
-        <v>192176</v>
+        <v>248268</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>3245</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>22535</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="7">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25770</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>48305</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7">
-        <v>5121</v>
+        <v>78467</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>71873</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>184</v>
+      </c>
+      <c r="N22" s="7">
+        <v>150340</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7957</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="7">
-        <v>20</v>
-      </c>
-      <c r="N22" s="7">
-        <v>13077</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,234 +2081,234 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I23" s="7">
-        <v>9768</v>
+        <v>98476</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="N23" s="7">
-        <v>16322</v>
+        <v>200463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1644</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>5</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3906</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="P24" s="7" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>22535</v>
+        <v>1175</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2757</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>25770</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3932</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="7">
-        <v>44</v>
-      </c>
-      <c r="N25" s="7">
-        <v>48305</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>985</v>
+        <v>18419</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7">
+        <v>17299</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>833</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>141</v>
       </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="N26" s="7">
-        <v>1818</v>
+        <v>35718</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7">
-        <v>78467</v>
+        <v>71130</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H27" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I27" s="7">
-        <v>71873</v>
+        <v>77491</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>148</v>
@@ -2317,10 +2317,10 @@
         <v>149</v>
       </c>
       <c r="M27" s="7">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="N27" s="7">
-        <v>150340</v>
+        <v>148621</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>150</v>
@@ -2338,49 +2338,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D28" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I28" s="7">
-        <v>98476</v>
+        <v>99190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M28" s="7">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="N28" s="7">
-        <v>200463</v>
+        <v>192176</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,10 +2391,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>3403</v>
+        <v>4973</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>153</v>
@@ -2403,82 +2403,82 @@
         <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3202</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
-        <v>4057</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8174</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M29" s="7">
-        <v>9</v>
-      </c>
-      <c r="N29" s="7">
-        <v>7460</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>81539</v>
+        <v>3403</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4057</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="7">
-        <v>79</v>
-      </c>
-      <c r="I30" s="7">
-        <v>71410</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7460</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M30" s="7">
-        <v>167</v>
-      </c>
-      <c r="N30" s="7">
-        <v>152949</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>168</v>
@@ -2490,13 +2490,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D31" s="7">
-        <v>4973</v>
+        <v>81539</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>170</v>
@@ -2505,31 +2505,31 @@
         <v>171</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="I31" s="7">
-        <v>3202</v>
+        <v>71410</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="N31" s="7">
-        <v>8174</v>
+        <v>152949</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>176</v>
@@ -2541,7 +2541,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>390</v>
@@ -2601,13 +2601,13 @@
         <v>416835</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H33" s="7">
         <v>476</v>
@@ -2616,13 +2616,13 @@
         <v>361271</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M33" s="7">
         <v>964</v>
@@ -2631,13 +2631,13 @@
         <v>778106</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{066D5531-B91D-456F-90DC-D9B372FB777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEC7973-2A07-4294-8667-4AE9D9F024EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{202A0AF2-4C8A-4165-A645-6FB676238C56}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89E3DAB6-9189-4F6D-A65D-E15FA157C8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="185">
   <si>
     <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -68,90 +68,144 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
@@ -161,73 +215,97 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,53%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -236,367 +314,283 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>3,05%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>5,73%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +601,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -703,39 +697,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -787,7 +781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -898,13 +892,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -913,6 +900,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -977,19 +971,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74991F0-1299-47C1-9380-273ED96B4B9F}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE17417-9BA8-4E2F-8554-E047BC980F1A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1106,10 +1120,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5121</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1121,187 +1135,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13077</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="7">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3245</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5121</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7957</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>13077</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,199 +1377,199 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>58838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>45315</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>104153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>6283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>16723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>10440</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>6283</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>16723</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>58838</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>45315</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>104153</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>58</v>
@@ -1620,193 +1634,193 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D14" s="7">
-        <v>1725</v>
+        <v>113365</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="I14" s="7">
-        <v>726</v>
+        <v>79966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="N14" s="7">
-        <v>2451</v>
+        <v>193330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>2228</v>
+        <v>28711</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7">
-        <v>1300</v>
+        <v>20247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N15" s="7">
-        <v>3528</v>
+        <v>48959</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>28711</v>
+        <v>2228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>20247</v>
+        <v>1300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>48959</v>
+        <v>3528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>113365</v>
+        <v>1725</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>79966</v>
+        <v>726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>193330</v>
+        <v>2451</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>90</v>
@@ -1877,199 +1891,199 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7">
-        <v>985</v>
+        <v>78467</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I19" s="7">
-        <v>833</v>
+        <v>71873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="N19" s="7">
-        <v>1818</v>
+        <v>150340</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>22535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>25770</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>48305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>22535</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>25770</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M21" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>48305</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>78467</v>
+        <v>985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>71873</v>
+        <v>833</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>150340</v>
+        <v>1818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>120</v>
@@ -2134,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7">
-        <v>2262</v>
+        <v>71130</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>122</v>
@@ -2149,25 +2163,25 @@
         <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I24" s="7">
-        <v>1644</v>
+        <v>77491</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>126</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="N24" s="7">
-        <v>3906</v>
+        <v>148621</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>127</v>
@@ -2176,160 +2190,160 @@
         <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>1175</v>
+        <v>18419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>2757</v>
+        <v>17299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="N25" s="7">
-        <v>3932</v>
+        <v>35718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1175</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="7">
-        <v>18419</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>17299</v>
+        <v>2757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>35718</v>
+        <v>3932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>71130</v>
+        <v>2262</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H27" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>77491</v>
+        <v>1644</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M27" s="7">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="N27" s="7">
-        <v>148621</v>
+        <v>3906</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>150</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,25 +2405,25 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="D29" s="7">
-        <v>4973</v>
+        <v>326920</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H29" s="7">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="I29" s="7">
-        <v>3202</v>
+        <v>282602</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>155</v>
@@ -2421,10 +2435,10 @@
         <v>157</v>
       </c>
       <c r="M29" s="7">
-        <v>10</v>
+        <v>778</v>
       </c>
       <c r="N29" s="7">
-        <v>8174</v>
+        <v>609522</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>158</v>
@@ -2439,13 +2453,13 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7">
-        <v>3403</v>
+        <v>81539</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>161</v>
@@ -2457,10 +2471,10 @@
         <v>163</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="I30" s="7">
-        <v>4057</v>
+        <v>71410</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>164</v>
@@ -2472,121 +2486,121 @@
         <v>166</v>
       </c>
       <c r="M30" s="7">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="N30" s="7">
-        <v>7460</v>
+        <v>152949</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>81539</v>
+        <v>3403</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4057</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H31" s="7">
-        <v>79</v>
-      </c>
-      <c r="I31" s="7">
-        <v>71410</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7460</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M31" s="7">
-        <v>167</v>
-      </c>
-      <c r="N31" s="7">
-        <v>152949</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>326920</v>
+        <v>4973</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3202</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="7">
-        <v>388</v>
-      </c>
-      <c r="I32" s="7">
-        <v>282602</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>8174</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M32" s="7">
-        <v>778</v>
-      </c>
-      <c r="N32" s="7">
-        <v>609522</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,6 +2652,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEC7973-2A07-4294-8667-4AE9D9F024EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D5BDA4-5004-4352-ABE3-FDB2E4E858A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89E3DAB6-9189-4F6D-A65D-E15FA157C8F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37C58E-55CF-4931-B03E-354312231BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,7 +74,7 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>30,36%</t>
+    <t>41,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>81,46%</t>
   </si>
   <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>69,64%</t>
+    <t>58,89%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -149,61 +149,61 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>86,17%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -215,34 +215,34 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>77,87%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>19,66%</t>
@@ -251,25 +251,25 @@
     <t>13,21%</t>
   </si>
   <si>
-    <t>29,12%</t>
+    <t>28,89%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -278,34 +278,34 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,12%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -314,64 +314,64 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -386,19 +386,19 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>5,97%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,63%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -407,142 +407,142 @@
     <t>76,5%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>6,52%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -551,43 +551,43 @@
     <t>0,23%</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE17417-9BA8-4E2F-8554-E047BC980F1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066E3646-1707-4ECA-B0BD-AEA1879F29E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,10 +2238,10 @@
         <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2262,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2271,13 +2271,13 @@
         <v>2757</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2286,13 +2286,13 @@
         <v>3932</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,10 +2307,10 @@
         <v>2262</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>147</v>
@@ -2519,7 +2519,7 @@
         <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2528,13 +2528,13 @@
         <v>4057</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -2543,13 +2543,13 @@
         <v>7460</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,10 +2564,10 @@
         <v>4973</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>179</v>
@@ -2597,10 +2597,10 @@
         <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D5BDA4-5004-4352-ABE3-FDB2E4E858A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{916F3293-FA5C-43E3-931A-FE6C7312F12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED37C58E-55CF-4931-B03E-354312231BDC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9CD11049-8155-4B9E-8F24-36712F0A17D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="185">
-  <si>
-    <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="222">
+  <si>
+    <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,529 +65,640 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1002,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066E3646-1707-4ECA-B0BD-AEA1879F29E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A82BE-230C-4BFF-B2E7-F047335D4166}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1120,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>5121</v>
+        <v>3237</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1135,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>7957</v>
+        <v>1686</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1150,10 +1261,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>13077</v>
+        <v>4923</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1171,10 +1282,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>1434</v>
+        <v>2050</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1186,1421 +1297,1419 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1811</v>
+        <v>5866</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7916</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3245</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1552</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6626</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>8178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>11809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>13832</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="7">
         <v>32</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>25641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>38837</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="7">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7">
+        <v>56645</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="7">
+        <v>124</v>
+      </c>
+      <c r="N8" s="7">
+        <v>95482</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6555</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9768</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="7">
-        <v>25</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16322</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="7">
+        <v>88</v>
+      </c>
+      <c r="D9" s="7">
+        <v>57485</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
+        <v>86</v>
+      </c>
+      <c r="I9" s="7">
+        <v>84655</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="7">
+        <v>174</v>
+      </c>
+      <c r="N9" s="7">
+        <v>142140</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1444</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5081</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6525</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
-        <v>58838</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45315</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="7">
-        <v>130</v>
-      </c>
-      <c r="N9" s="7">
-        <v>104153</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10440</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6283</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7">
-        <v>21</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16723</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>3887</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>7101</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>10991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>69278</v>
+        <v>16956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>51598</v>
+        <v>44030</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>120876</v>
+        <v>60986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>113365</v>
+        <v>72765</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I14" s="7">
-        <v>79966</v>
+        <v>91327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="N14" s="7">
-        <v>193330</v>
+        <v>164093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>28711</v>
+        <v>97266</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
+        <v>175</v>
+      </c>
+      <c r="I15" s="7">
+        <v>149215</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="7">
+        <v>311</v>
+      </c>
+      <c r="N15" s="7">
+        <v>246482</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>864</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="7">
-        <v>27</v>
-      </c>
-      <c r="I15" s="7">
-        <v>20247</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="7">
-        <v>53</v>
-      </c>
-      <c r="N15" s="7">
-        <v>48959</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2228</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1300</v>
+        <v>1658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>3528</v>
+        <v>2521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1725</v>
+        <v>806</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
-        <v>726</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
       <c r="N17" s="7">
-        <v>2451</v>
+        <v>806</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>146029</v>
+        <v>5304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>102239</v>
+        <v>9268</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>310</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>248268</v>
+        <v>14573</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>78467</v>
+        <v>19808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>71873</v>
+        <v>17674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="N19" s="7">
-        <v>150340</v>
+        <v>37482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7">
-        <v>22535</v>
+        <v>92042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I20" s="7">
-        <v>25770</v>
+        <v>80364</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="N20" s="7">
-        <v>48305</v>
+        <v>172406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>118824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>108964</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>227788</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>985</v>
+        <v>4058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>833</v>
+        <v>2544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>1818</v>
+        <v>6602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>101987</v>
+        <v>888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>98476</v>
+        <v>2411</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>200463</v>
+        <v>3299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7">
         <v>10</v>
       </c>
-      <c r="C24" s="7">
-        <v>91</v>
-      </c>
       <c r="D24" s="7">
-        <v>71130</v>
+        <v>7331</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>77491</v>
+        <v>6367</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>148621</v>
+        <v>13698</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>18419</v>
+        <v>23180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="7">
-        <v>17299</v>
+        <v>17762</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N25" s="7">
-        <v>35718</v>
+        <v>40942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D26" s="7">
-        <v>1175</v>
+        <v>59570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I26" s="7">
-        <v>2757</v>
+        <v>67387</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="N26" s="7">
-        <v>3932</v>
+        <v>126957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>130</v>
+      </c>
+      <c r="D27" s="7">
+        <v>95026</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>117</v>
+      </c>
+      <c r="I27" s="7">
+        <v>96471</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>247</v>
+      </c>
+      <c r="N27" s="7">
+        <v>191497</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
-        <v>2262</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="7">
-        <v>2</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1644</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27" s="7">
-        <v>5</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3906</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q27" s="7" t="s">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9603</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="7">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7">
+        <v>10969</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>117</v>
-      </c>
-      <c r="D28" s="7">
-        <v>92986</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="7">
-        <v>131</v>
-      </c>
-      <c r="I28" s="7">
-        <v>99190</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="N28" s="7">
-        <v>192176</v>
+        <v>20571</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>390</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>326920</v>
+        <v>5955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
-        <v>388</v>
+        <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>282602</v>
+        <v>9953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>778</v>
+        <v>16</v>
       </c>
       <c r="N29" s="7">
-        <v>609522</v>
+        <v>15908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>81539</v>
+        <v>18077</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I30" s="7">
-        <v>71410</v>
+        <v>29362</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="N30" s="7">
-        <v>152949</v>
+        <v>47440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D31" s="7">
-        <v>3403</v>
+        <v>71752</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="I31" s="7">
-        <v>4057</v>
+        <v>93299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="N31" s="7">
-        <v>7460</v>
+        <v>165051</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="D32" s="7">
-        <v>4973</v>
+        <v>263214</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="I32" s="7">
-        <v>3202</v>
+        <v>295723</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
-        <v>10</v>
+        <v>664</v>
       </c>
       <c r="N32" s="7">
-        <v>8174</v>
+        <v>558937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,68 +2718,67 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>474</v>
+      </c>
+      <c r="D33" s="7">
+        <v>368601</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>488</v>
       </c>
-      <c r="D33" s="7">
-        <v>416835</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="7">
-        <v>476</v>
-      </c>
       <c r="I33" s="7">
-        <v>361271</v>
+        <v>439305</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="N33" s="7">
-        <v>778106</v>
+        <v>807906</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
+  <mergeCells count="9">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
